--- a/Dataset_EDA_Pairplot_Feature_PCA_Mahalanobis/new FeCrNiMoTi to hardness dataset.xlsx
+++ b/Dataset_EDA_Pairplot_Feature_PCA_Mahalanobis/new FeCrNiMoTi to hardness dataset.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X70"/>
+  <dimension ref="A1:AF70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -526,27 +526,67 @@
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
+          <t>delta_a</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Tm</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>sigma_Tm</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Hmix</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>sigma_Hmix</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>sigma_elec_nega</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>VEC</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>sigma_VEC</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
           <t>Mahalanobis</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>p value</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>dataset</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>PCA1</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>PCA2</t>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>UMAP Component 1</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>UMAP Component 2</t>
         </is>
       </c>
     </row>
@@ -609,19 +649,45 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>19.99329218874836</v>
+        <v>0.02253547848829161</v>
       </c>
       <c r="U2" t="n">
-        <v>4.555245247273021e-05</v>
+        <v>1943.689937272888</v>
       </c>
       <c r="V2" t="n">
-        <v>2</v>
+        <v>257.6622314272465</v>
       </c>
       <c r="W2" t="n">
-        <v>-8.226433129978624</v>
+        <v>-6.600670779576464</v>
       </c>
       <c r="X2" t="n">
-        <v>31.2485504426927</v>
+        <v>2.725194759728065</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.1294765609887397</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>8.019565087964157</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1.882782738202394</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>27.16288802213252</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>1.26372858666457e-06</v>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>new NiCrMoTiFe data</t>
+        </is>
+      </c>
+      <c r="AE2" t="n">
+        <v>4.738452434539795</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>13.3274097442627</v>
       </c>
     </row>
     <row r="3">
@@ -683,19 +749,45 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>18.67712231514842</v>
+        <v>0.026945226277379</v>
       </c>
       <c r="U3" t="n">
-        <v>8.796591416337929e-05</v>
+        <v>1965.232211811153</v>
       </c>
       <c r="V3" t="n">
-        <v>2</v>
+        <v>272.8648425860655</v>
       </c>
       <c r="W3" t="n">
-        <v>-7.187387630730134</v>
+        <v>-6.78435871165528</v>
       </c>
       <c r="X3" t="n">
-        <v>27.81059897723561</v>
+        <v>3.05867883644598</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.1352538527876291</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>7.860844830357834</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>1.882863745105841</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>25.12998729737448</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>3.492147614525543e-06</v>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>new NiCrMoTiFe data</t>
+        </is>
+      </c>
+      <c r="AE3" t="n">
+        <v>5.01034688949585</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>13.55769538879395</v>
       </c>
     </row>
     <row r="4">
@@ -757,19 +849,45 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>17.55007633036086</v>
+        <v>0.03182150005173198</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0001545430027843908</v>
+        <v>1982.136990951654</v>
       </c>
       <c r="V4" t="n">
-        <v>2</v>
+        <v>287.9882959816393</v>
       </c>
       <c r="W4" t="n">
-        <v>-6.768134131522441</v>
+        <v>-7.110372733273779</v>
       </c>
       <c r="X4" t="n">
-        <v>25.32825172870739</v>
+        <v>3.472869202386087</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.1415133348130074</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>7.745255241435793</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>1.88771008374703</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>22.5004230090868</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>1.300454684238783e-05</v>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>new NiCrMoTiFe data</t>
+        </is>
+      </c>
+      <c r="AE4" t="n">
+        <v>5.186628818511963</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>13.8535680770874</v>
       </c>
     </row>
     <row r="5">
@@ -831,19 +949,45 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>16.39654654098099</v>
+        <v>0.03650958141869899</v>
       </c>
       <c r="U5" t="n">
-        <v>0.0002751282320848647</v>
+        <v>1998.704549708214</v>
       </c>
       <c r="V5" t="n">
-        <v>2</v>
+        <v>303.2036733109156</v>
       </c>
       <c r="W5" t="n">
-        <v>-6.290257624869606</v>
+        <v>-7.448384251476016</v>
       </c>
       <c r="X5" t="n">
-        <v>22.77208434465871</v>
+        <v>3.870669819197706</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.1481363288949336</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>7.632754295458398</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>1.888592288927109</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>20.25822334449328</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>3.990090022687465e-05</v>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>new NiCrMoTiFe data</t>
+        </is>
+      </c>
+      <c r="AE5" t="n">
+        <v>5.303067207336426</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>13.91751766204834</v>
       </c>
     </row>
     <row r="6">
@@ -905,19 +1049,45 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>15.10102782141914</v>
+        <v>0.04235576111430078</v>
       </c>
       <c r="U6" t="n">
-        <v>0.0005258398229494032</v>
+        <v>2018.214448345743</v>
       </c>
       <c r="V6" t="n">
-        <v>2</v>
+        <v>324.7308784847412</v>
       </c>
       <c r="W6" t="n">
-        <v>-6.723273477111064</v>
+        <v>-8.088070431069367</v>
       </c>
       <c r="X6" t="n">
-        <v>20.60889503001638</v>
+        <v>4.408553128514561</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.1577895466199949</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>7.522190808934132</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>1.906034934854781</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>18.08894479284758</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.0001180417247500509</v>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>new NiCrMoTiFe data</t>
+        </is>
+      </c>
+      <c r="AE6" t="n">
+        <v>5.373411655426025</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>14.07107734680176</v>
       </c>
     </row>
     <row r="7">
@@ -979,19 +1149,45 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>18.27939312886406</v>
+        <v>0.01965435998709448</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0001073198892430627</v>
+        <v>1892.938009525174</v>
       </c>
       <c r="V7" t="n">
-        <v>2</v>
+        <v>237.5653691001578</v>
       </c>
       <c r="W7" t="n">
-        <v>-6.820957015556279</v>
+        <v>-5.994507720450256</v>
       </c>
       <c r="X7" t="n">
-        <v>35.0293637665472</v>
+        <v>2.581847742723802</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0.118462799182464</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>8.395015690413883</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>1.794908847638016</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>20.98415451278958</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>2.775548009426032e-05</v>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>new NiCrMoTiFe data</t>
+        </is>
+      </c>
+      <c r="AE7" t="n">
+        <v>4.391915321350098</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>13.22952461242676</v>
       </c>
     </row>
     <row r="8">
@@ -1053,19 +1249,45 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>15.81808842341112</v>
+        <v>0.0217918802475133</v>
       </c>
       <c r="U8" t="n">
-        <v>0.0003674055747779903</v>
+        <v>1909.362930638625</v>
       </c>
       <c r="V8" t="n">
-        <v>2</v>
+        <v>247.3803952796019</v>
       </c>
       <c r="W8" t="n">
-        <v>-5.554613697945775</v>
+        <v>-6.183842717090985</v>
       </c>
       <c r="X8" t="n">
-        <v>32.0670925697443</v>
+        <v>2.759795499553949</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0.1223855138317489</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>8.255002054743928</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>1.81549624662442</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>18.95484259327267</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>7.656111121390197e-05</v>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>new NiCrMoTiFe data</t>
+        </is>
+      </c>
+      <c r="AE8" t="n">
+        <v>4.491272449493408</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>13.6343297958374</v>
       </c>
     </row>
     <row r="9">
@@ -1127,19 +1349,45 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>13.53461879421784</v>
+        <v>0.02725683407173547</v>
       </c>
       <c r="U9" t="n">
-        <v>0.001150786799453685</v>
+        <v>1932.778266653697</v>
       </c>
       <c r="V9" t="n">
-        <v>2</v>
+        <v>265.8434854610491</v>
       </c>
       <c r="W9" t="n">
-        <v>-4.39386777945812</v>
+        <v>-6.625733508060049</v>
       </c>
       <c r="X9" t="n">
-        <v>28.24699680365771</v>
+        <v>3.244590676251661</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0.1295903888532182</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>8.071379240315668</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>1.841990243468286</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>16.06064105337072</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0.0003254438787533287</v>
+      </c>
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t>new NiCrMoTiFe data</t>
+        </is>
+      </c>
+      <c r="AE9" t="n">
+        <v>4.822914123535156</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>13.83869171142578</v>
       </c>
     </row>
     <row r="10">
@@ -1201,19 +1449,45 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>12.35168332629876</v>
+        <v>0.0317465603588726</v>
       </c>
       <c r="U10" t="n">
-        <v>0.002079055316599243</v>
+        <v>1949.68899993882</v>
       </c>
       <c r="V10" t="n">
-        <v>2</v>
+        <v>282.152996096776</v>
       </c>
       <c r="W10" t="n">
-        <v>-3.990031289965077</v>
+        <v>-7.013371196182618</v>
       </c>
       <c r="X10" t="n">
-        <v>25.80708080111336</v>
+        <v>3.63603906421679</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0.1358791131797596</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>7.954126347312226</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>1.858662341015401</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>14.19234060472385</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0.0008282708841086395</v>
+      </c>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t>new NiCrMoTiFe data</t>
+        </is>
+      </c>
+      <c r="AE10" t="n">
+        <v>5.119049549102783</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>13.69280529022217</v>
       </c>
     </row>
     <row r="11">
@@ -1275,19 +1549,45 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>11.19391113917099</v>
+        <v>0.03747469633312293</v>
       </c>
       <c r="U11" t="n">
-        <v>0.003709138759583563</v>
+        <v>1970.837222367484</v>
       </c>
       <c r="V11" t="n">
-        <v>2</v>
+        <v>301.8142356671538</v>
       </c>
       <c r="W11" t="n">
-        <v>-3.510856209841564</v>
+        <v>-7.569709028266012</v>
       </c>
       <c r="X11" t="n">
-        <v>22.66891088133382</v>
+        <v>4.14684298561076</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0.144266728071026</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>7.803943277815691</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>1.876353876773989</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>12.65073626325898</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0.001790307060558827</v>
+      </c>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t>new NiCrMoTiFe data</t>
+        </is>
+      </c>
+      <c r="AE11" t="n">
+        <v>5.492897033691406</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>14.13170051574707</v>
       </c>
     </row>
     <row r="12">
@@ -1349,19 +1649,45 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>10.60501846716269</v>
+        <v>0.04388062762971051</v>
       </c>
       <c r="U12" t="n">
-        <v>0.004979084532888756</v>
+        <v>1984.893645274819</v>
       </c>
       <c r="V12" t="n">
-        <v>2</v>
+        <v>312.7912526964028</v>
       </c>
       <c r="W12" t="n">
-        <v>-3.522127254834655</v>
+        <v>-8.544522616153614</v>
       </c>
       <c r="X12" t="n">
-        <v>20.37194363451287</v>
+        <v>4.828722472818985</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0.1518851483776252</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>7.661042526388837</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>1.913479908641325</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>12.25373486018514</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0.002183409943282033</v>
+      </c>
+      <c r="AD12" t="inlineStr">
+        <is>
+          <t>new NiCrMoTiFe data</t>
+        </is>
+      </c>
+      <c r="AE12" t="n">
+        <v>5.511914253234863</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>14.34675884246826</v>
       </c>
     </row>
     <row r="13">
@@ -1423,19 +1749,45 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>9.825588084528711</v>
+        <v>0.05066928667504613</v>
       </c>
       <c r="U13" t="n">
-        <v>0.007351918037893479</v>
+        <v>2003.518849764438</v>
       </c>
       <c r="V13" t="n">
-        <v>2</v>
+        <v>335.0663881607878</v>
       </c>
       <c r="W13" t="n">
-        <v>-3.918997283894099</v>
+        <v>-9.696165162328285</v>
       </c>
       <c r="X13" t="n">
-        <v>17.78034737534</v>
+        <v>5.529627551909937</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0.1630674105518074</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>7.518731247211836</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>1.953826742856776</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>12.32037620419209</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0.00211185598983088</v>
+      </c>
+      <c r="AD13" t="inlineStr">
+        <is>
+          <t>new NiCrMoTiFe data</t>
+        </is>
+      </c>
+      <c r="AE13" t="n">
+        <v>6.003913402557373</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>14.49636936187744</v>
       </c>
     </row>
     <row r="14">
@@ -1497,19 +1849,45 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>22.87269478440884</v>
+        <v>0.01739704546744002</v>
       </c>
       <c r="U14" t="n">
-        <v>1.07958647335149e-05</v>
+        <v>1846.004872720976</v>
       </c>
       <c r="V14" t="n">
-        <v>2</v>
+        <v>208.545571495524</v>
       </c>
       <c r="W14" t="n">
-        <v>-6.275905893910586</v>
+        <v>-5.094679961225654</v>
       </c>
       <c r="X14" t="n">
-        <v>39.14648881094796</v>
+        <v>2.418353126284907</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0.1040068291739515</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>8.753101635493772</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>1.642333751820618</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>25.08374097691627</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>3.573837932702162e-06</v>
+      </c>
+      <c r="AD14" t="inlineStr">
+        <is>
+          <t>new NiCrMoTiFe data</t>
+        </is>
+      </c>
+      <c r="AE14" t="n">
+        <v>4.259920597076416</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>12.52484893798828</v>
       </c>
     </row>
     <row r="15">
@@ -1571,19 +1949,45 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>16.99100921847479</v>
+        <v>0.01947690848130698</v>
       </c>
       <c r="U15" t="n">
-        <v>0.0002043850978205031</v>
+        <v>1866.941193872086</v>
       </c>
       <c r="V15" t="n">
-        <v>2</v>
+        <v>226.0261257366551</v>
       </c>
       <c r="W15" t="n">
-        <v>-4.264860934980512</v>
+        <v>-5.441412868137491</v>
       </c>
       <c r="X15" t="n">
-        <v>35.06684413026758</v>
+        <v>2.569150380285395</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0.1104513402409985</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>8.572316199529585</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>1.698161567663727</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>18.53102328638613</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>9.46323056171261e-05</v>
+      </c>
+      <c r="AD15" t="inlineStr">
+        <is>
+          <t>new NiCrMoTiFe data</t>
+        </is>
+      </c>
+      <c r="AE15" t="n">
+        <v>4.666158676147461</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>12.90387725830078</v>
       </c>
     </row>
     <row r="16">
@@ -1645,19 +2049,45 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>12.60586733096606</v>
+        <v>0.02614807216016997</v>
       </c>
       <c r="U16" t="n">
-        <v>0.001830925567347097</v>
+        <v>1896.591610650031</v>
       </c>
       <c r="V16" t="n">
-        <v>2</v>
+        <v>262.9862156880843</v>
       </c>
       <c r="W16" t="n">
-        <v>-3.281273113085942</v>
+        <v>-6.066504624882787</v>
       </c>
       <c r="X16" t="n">
-        <v>30.7954758352471</v>
+        <v>3.110339246432171</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0.1214845237525694</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>8.380020178311289</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>1.757842370440394</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>13.28960131990173</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0.001300767687514526</v>
+      </c>
+      <c r="AD16" t="inlineStr">
+        <is>
+          <t>new NiCrMoTiFe data</t>
+        </is>
+      </c>
+      <c r="AE16" t="n">
+        <v>5.134108543395996</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>13.30812931060791</v>
       </c>
     </row>
     <row r="17">
@@ -1719,19 +2149,45 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>10.65669505700978</v>
+        <v>0.02740953437875311</v>
       </c>
       <c r="U17" t="n">
-        <v>0.004852081317268109</v>
+        <v>1899.607557974004</v>
       </c>
       <c r="V17" t="n">
-        <v>2</v>
+        <v>250.33118776717</v>
       </c>
       <c r="W17" t="n">
-        <v>-1.115640070685694</v>
+        <v>-6.338153193151018</v>
       </c>
       <c r="X17" t="n">
-        <v>28.25757397983457</v>
+        <v>3.397307173723182</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0.1213911037671031</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>8.2672917255691</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>1.774013157089227</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>11.48735231677533</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0.003202971973768398</v>
+      </c>
+      <c r="AD17" t="inlineStr">
+        <is>
+          <t>new NiCrMoTiFe data</t>
+        </is>
+      </c>
+      <c r="AE17" t="n">
+        <v>5.290925025939941</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>13.54015827178955</v>
       </c>
     </row>
     <row r="18">
@@ -1793,19 +2249,45 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>8.834139194466498</v>
+        <v>0.0316784625857767</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01206954915335845</v>
+        <v>1918.914538936323</v>
       </c>
       <c r="V18" t="n">
-        <v>2</v>
+        <v>268.6088083257905</v>
       </c>
       <c r="W18" t="n">
-        <v>0.1112020882256623</v>
+        <v>-6.728312662984566</v>
       </c>
       <c r="X18" t="n">
-        <v>24.79801600836515</v>
+        <v>3.750063930849105</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0.1280679896451321</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>8.116719928551362</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>1.796536213617284</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>9.451195484746926</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0.008865413092760788</v>
+      </c>
+      <c r="AD18" t="inlineStr">
+        <is>
+          <t>new NiCrMoTiFe data</t>
+        </is>
+      </c>
+      <c r="AE18" t="n">
+        <v>5.24146556854248</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>13.67841625213623</v>
       </c>
     </row>
     <row r="19">
@@ -1867,19 +2349,45 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>7.830576366338158</v>
+        <v>0.03883073678720242</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01993480294309502</v>
+        <v>1936.944520901956</v>
       </c>
       <c r="V19" t="n">
-        <v>2</v>
+        <v>286.114727429456</v>
       </c>
       <c r="W19" t="n">
-        <v>0.2563667104631219</v>
+        <v>-7.752075638070176</v>
       </c>
       <c r="X19" t="n">
-        <v>22.05061953954347</v>
+        <v>4.499828510959734</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0.1371385668757474</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>7.957869280171375</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>1.849247090506852</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>8.479326522642049</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0.01441244425350807</v>
+      </c>
+      <c r="AD19" t="inlineStr">
+        <is>
+          <t>new NiCrMoTiFe data</t>
+        </is>
+      </c>
+      <c r="AE19" t="n">
+        <v>5.680290222167969</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>13.98822593688965</v>
       </c>
     </row>
     <row r="20">
@@ -1941,19 +2449,45 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>7.411911760781569</v>
+        <v>0.04461186343544309</v>
       </c>
       <c r="U20" t="n">
-        <v>0.02457671373736681</v>
+        <v>1954.568006482204</v>
       </c>
       <c r="V20" t="n">
-        <v>2</v>
+        <v>302.1329935124126</v>
       </c>
       <c r="W20" t="n">
-        <v>0.3185891429928222</v>
+        <v>-8.660219988523377</v>
       </c>
       <c r="X20" t="n">
-        <v>19.41669130636992</v>
+        <v>5.066392016039307</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0.1457353177332849</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>7.803526696195461</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>1.889766506706896</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>8.530488820031215</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0.01404843313564952</v>
+      </c>
+      <c r="AD20" t="inlineStr">
+        <is>
+          <t>new NiCrMoTiFe data</t>
+        </is>
+      </c>
+      <c r="AE20" t="n">
+        <v>5.853853225708008</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>14.18538665771484</v>
       </c>
     </row>
     <row r="21">
@@ -2015,19 +2549,45 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>7.515036436738352</v>
+        <v>0.05198665350521549</v>
       </c>
       <c r="U21" t="n">
-        <v>0.02334159729848517</v>
+        <v>1969.978709878658</v>
       </c>
       <c r="V21" t="n">
-        <v>2</v>
+        <v>316.0498125581364</v>
       </c>
       <c r="W21" t="n">
-        <v>-0.3603209656314212</v>
+        <v>-10.21091531625622</v>
       </c>
       <c r="X21" t="n">
-        <v>17.13598300022248</v>
+        <v>5.86883370797833</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0.1562375522813785</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>7.625784978425697</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>1.958545681888617</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>9.626376898955018</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0.008121922031127715</v>
+      </c>
+      <c r="AD21" t="inlineStr">
+        <is>
+          <t>new NiCrMoTiFe data</t>
+        </is>
+      </c>
+      <c r="AE21" t="n">
+        <v>6.17129373550415</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>14.61270427703857</v>
       </c>
     </row>
     <row r="22">
@@ -2089,19 +2649,45 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>9.174443334933123</v>
+        <v>0.05985793982608022</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01018110561203667</v>
+        <v>1996.200713394664</v>
       </c>
       <c r="V22" t="n">
-        <v>2</v>
+        <v>337.7521210642616</v>
       </c>
       <c r="W22" t="n">
-        <v>-2.059428160347796</v>
+        <v>-12.06417246312632</v>
       </c>
       <c r="X22" t="n">
-        <v>14.18218541964373</v>
+        <v>6.669299994840343</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0.1714788632028532</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>7.361850390881772</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>2.03318915807749</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>12.83943366191577</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0.001629117485117071</v>
+      </c>
+      <c r="AD22" t="inlineStr">
+        <is>
+          <t>new NiCrMoTiFe data</t>
+        </is>
+      </c>
+      <c r="AE22" t="n">
+        <v>6.384805679321289</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>14.7233943939209</v>
       </c>
     </row>
     <row r="23">
@@ -2163,19 +2749,45 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>20.37285753927176</v>
+        <v>0.01703421361986344</v>
       </c>
       <c r="U23" t="n">
-        <v>3.767820416200607e-05</v>
+        <v>1829.432936207961</v>
       </c>
       <c r="V23" t="n">
-        <v>2</v>
+        <v>194.5359229531003</v>
       </c>
       <c r="W23" t="n">
-        <v>-2.459809307261411</v>
+        <v>-4.517885222436832</v>
       </c>
       <c r="X23" t="n">
-        <v>37.03781217092838</v>
+        <v>2.342413511136046</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>0.09543470603399078</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>8.835047045046412</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>1.535777422704193</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>23.49199439307999</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>7.92096753143845e-06</v>
+      </c>
+      <c r="AD23" t="inlineStr">
+        <is>
+          <t>new NiCrMoTiFe data</t>
+        </is>
+      </c>
+      <c r="AE23" t="n">
+        <v>4.601431846618652</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>12.29171085357666</v>
       </c>
     </row>
     <row r="24">
@@ -2237,19 +2849,45 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>15.13615477496063</v>
+        <v>0.01938512517788404</v>
       </c>
       <c r="U24" t="n">
-        <v>0.0005166848790943979</v>
+        <v>1841.633143209984</v>
       </c>
       <c r="V24" t="n">
-        <v>2</v>
+        <v>202.3816663890206</v>
       </c>
       <c r="W24" t="n">
-        <v>0.06865734566514453</v>
+        <v>-4.884745617838008</v>
       </c>
       <c r="X24" t="n">
-        <v>33.28739693233355</v>
+        <v>2.632730186938086</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>0.09994899088701827</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>8.694488378477923</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>1.583615007422299</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>17.10786257934427</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0.0001927857113726006</v>
+      </c>
+      <c r="AD24" t="inlineStr">
+        <is>
+          <t>new NiCrMoTiFe data</t>
+        </is>
+      </c>
+      <c r="AE24" t="n">
+        <v>4.865267276763916</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>12.47663021087646</v>
       </c>
     </row>
     <row r="25">
@@ -2311,19 +2949,45 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>11.05618968864449</v>
+        <v>0.02307664646754815</v>
       </c>
       <c r="U25" t="n">
-        <v>0.003973552117808032</v>
+        <v>1859.242021620291</v>
       </c>
       <c r="V25" t="n">
-        <v>2</v>
+        <v>219.6686467883856</v>
       </c>
       <c r="W25" t="n">
-        <v>2.068998495661335</v>
+        <v>-5.34223457073141</v>
       </c>
       <c r="X25" t="n">
-        <v>29.40617837002934</v>
+        <v>2.988762674433695</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0.1065652409568925</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>8.532157437481349</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>1.636501504486467</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>12.1766142404426</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0.002269247227741245</v>
+      </c>
+      <c r="AD25" t="inlineStr">
+        <is>
+          <t>new NiCrMoTiFe data</t>
+        </is>
+      </c>
+      <c r="AE25" t="n">
+        <v>5.106874942779541</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>12.92053699493408</v>
       </c>
     </row>
     <row r="26">
@@ -2385,19 +3049,45 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>8.723485578847487</v>
+        <v>0.02660818647152365</v>
       </c>
       <c r="U26" t="n">
-        <v>0.01275613700541312</v>
+        <v>1874.369014877993</v>
       </c>
       <c r="V26" t="n">
-        <v>2</v>
+        <v>233.7827750446807</v>
       </c>
       <c r="W26" t="n">
-        <v>3.519194307942927</v>
+        <v>-5.757498915755456</v>
       </c>
       <c r="X26" t="n">
-        <v>26.25922465628219</v>
+        <v>3.326658615019689</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0.112260311158507</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>8.394800376906851</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>1.675082869941759</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>9.404543475118587</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>0.00907463847074419</v>
+      </c>
+      <c r="AD26" t="inlineStr">
+        <is>
+          <t>new NiCrMoTiFe data</t>
+        </is>
+      </c>
+      <c r="AE26" t="n">
+        <v>5.322593212127686</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>13.09255313873291</v>
       </c>
     </row>
     <row r="27">
@@ -2459,19 +3149,45 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>7.10854063312166</v>
+        <v>0.03193803030454426</v>
       </c>
       <c r="U27" t="n">
-        <v>0.02860223788298133</v>
+        <v>1888.522296876517</v>
       </c>
       <c r="V27" t="n">
-        <v>2</v>
+        <v>248.7015154097845</v>
       </c>
       <c r="W27" t="n">
-        <v>4.921882070873752</v>
+        <v>-6.405330687502009</v>
       </c>
       <c r="X27" t="n">
-        <v>23.01542232632374</v>
+        <v>3.86801246377312</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0.1188191128917422</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>8.257133996825495</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>1.715493650301267</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>7.549824672982647</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>0.02293910147591049</v>
+      </c>
+      <c r="AD27" t="inlineStr">
+        <is>
+          <t>new NiCrMoTiFe data</t>
+        </is>
+      </c>
+      <c r="AE27" t="n">
+        <v>5.512571334838867</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>13.53931617736816</v>
       </c>
     </row>
     <row r="28">
@@ -2533,19 +3249,45 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>6.300571961021992</v>
+        <v>0.03889647897676301</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04283987374606191</v>
+        <v>1908.625083921418</v>
       </c>
       <c r="V28" t="n">
-        <v>2</v>
+        <v>268.3262209995151</v>
       </c>
       <c r="W28" t="n">
-        <v>4.791844298817042</v>
+        <v>-7.528630542893998</v>
       </c>
       <c r="X28" t="n">
-        <v>20.34712176484697</v>
+        <v>4.589834679450541</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>0.1290665430053385</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>8.079933631752702</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>1.788739041612613</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>6.904061761190501</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>0.03168123020392533</v>
+      </c>
+      <c r="AD28" t="inlineStr">
+        <is>
+          <t>new NiCrMoTiFe data</t>
+        </is>
+      </c>
+      <c r="AE28" t="n">
+        <v>5.978182792663574</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>13.94995403289795</v>
       </c>
     </row>
     <row r="29">
@@ -2607,19 +3349,45 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>6.090031514292271</v>
+        <v>0.04509242286438606</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04759556201139559</v>
+        <v>1924.534454712694</v>
       </c>
       <c r="V29" t="n">
-        <v>2</v>
+        <v>282.1894380959296</v>
       </c>
       <c r="W29" t="n">
-        <v>4.745527512569968</v>
+        <v>-8.668713231012978</v>
       </c>
       <c r="X29" t="n">
-        <v>17.88451389048656</v>
+        <v>5.222827047467528</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>0.1379805743975732</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>7.915605804901404</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>1.850493355719852</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>7.136372045300028</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>0.02820697411278128</v>
+      </c>
+      <c r="AD29" t="inlineStr">
+        <is>
+          <t>new NiCrMoTiFe data</t>
+        </is>
+      </c>
+      <c r="AE29" t="n">
+        <v>6.264218330383301</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>14.22107887268066</v>
       </c>
     </row>
     <row r="30">
@@ -2681,19 +3449,45 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>6.491831990667857</v>
+        <v>0.05304218528784226</v>
       </c>
       <c r="U30" t="n">
-        <v>0.03893288567741093</v>
+        <v>1944.45525054741</v>
       </c>
       <c r="V30" t="n">
-        <v>2</v>
+        <v>303.655158994235</v>
       </c>
       <c r="W30" t="n">
-        <v>3.434842552256803</v>
+        <v>-10.45824427832613</v>
       </c>
       <c r="X30" t="n">
-        <v>15.64315833269922</v>
+        <v>6.059471159808631</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0.1511517078432263</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>7.718060858733409</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>1.941272622660873</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>8.687525796536789</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>0.01298756525310951</v>
+      </c>
+      <c r="AD30" t="inlineStr">
+        <is>
+          <t>new NiCrMoTiFe data</t>
+        </is>
+      </c>
+      <c r="AE30" t="n">
+        <v>6.41389799118042</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>14.34616279602051</v>
       </c>
     </row>
     <row r="31">
@@ -2755,19 +3549,45 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>8.504830844589959</v>
+        <v>0.06136890664099685</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01422982133757178</v>
+        <v>1959.846181129472</v>
       </c>
       <c r="V31" t="n">
-        <v>2</v>
+        <v>313.2213556904683</v>
       </c>
       <c r="W31" t="n">
-        <v>2.083418859011431</v>
+        <v>-12.78837389426011</v>
       </c>
       <c r="X31" t="n">
-        <v>13.07456813737137</v>
+        <v>6.949359547274405</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>0.1642509978251736</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>7.453239485040996</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>2.045982747978779</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>11.63449269818593</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>0.002975788154785386</v>
+      </c>
+      <c r="AD31" t="inlineStr">
+        <is>
+          <t>new NiCrMoTiFe data</t>
+        </is>
+      </c>
+      <c r="AE31" t="n">
+        <v>6.567033767700195</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>14.80663871765137</v>
       </c>
     </row>
     <row r="32">
@@ -2829,19 +3649,45 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>17.62279217791304</v>
+        <v>0.01642425646165967</v>
       </c>
       <c r="U32" t="n">
-        <v>0.000149025058403196</v>
+        <v>1814.229384283334</v>
       </c>
       <c r="V32" t="n">
-        <v>2</v>
+        <v>172.1043267389533</v>
       </c>
       <c r="W32" t="n">
-        <v>2.242247573821223</v>
+        <v>-4.028868396605834</v>
       </c>
       <c r="X32" t="n">
-        <v>33.95548653894195</v>
+        <v>2.290221615134703</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>0.08608831927901155</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>8.877229809856251</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>1.433340635221596</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>21.69013715519988</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>1.950053654586892e-05</v>
+      </c>
+      <c r="AD32" t="inlineStr">
+        <is>
+          <t>new NiCrMoTiFe data</t>
+        </is>
+      </c>
+      <c r="AE32" t="n">
+        <v>4.77864933013916</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>12.23035526275635</v>
       </c>
     </row>
     <row r="33">
@@ -2903,19 +3749,45 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>12.80060869278948</v>
+        <v>0.02005287698639604</v>
       </c>
       <c r="U33" t="n">
-        <v>0.001661051661152713</v>
+        <v>1828.174076480355</v>
       </c>
       <c r="V33" t="n">
-        <v>2</v>
+        <v>187.8867026100067</v>
       </c>
       <c r="W33" t="n">
-        <v>4.990033847423997</v>
+        <v>-4.483383626027237</v>
       </c>
       <c r="X33" t="n">
-        <v>29.75114389918909</v>
+        <v>2.675542255443848</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>0.0923369200142214</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>8.727387485378392</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>1.49184845250026</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>15.32203515840633</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>0.0004708280621051886</v>
+      </c>
+      <c r="AD33" t="inlineStr">
+        <is>
+          <t>new NiCrMoTiFe data</t>
+        </is>
+      </c>
+      <c r="AE33" t="n">
+        <v>5.231932163238525</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>12.37939834594727</v>
       </c>
     </row>
     <row r="34">
@@ -2977,19 +3849,45 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>9.671768480733803</v>
+        <v>0.02340667151348476</v>
       </c>
       <c r="U34" t="n">
-        <v>0.007939664648130229</v>
+        <v>1842.53899141852</v>
       </c>
       <c r="V34" t="n">
-        <v>2</v>
+        <v>203.9119805416204</v>
       </c>
       <c r="W34" t="n">
-        <v>7.296391387500979</v>
+        <v>-4.879964777771953</v>
       </c>
       <c r="X34" t="n">
-        <v>25.90466452632852</v>
+        <v>2.9914260627542</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>0.09831534675329141</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>8.584083714612751</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>1.537891595222003</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>11.21058081293467</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>0.003678352171870847</v>
+      </c>
+      <c r="AD34" t="inlineStr">
+        <is>
+          <t>new NiCrMoTiFe data</t>
+        </is>
+      </c>
+      <c r="AE34" t="n">
+        <v>5.420029640197754</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>12.57032680511475</v>
       </c>
     </row>
     <row r="35">
@@ -3051,19 +3949,45 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>7.989359110904715</v>
+        <v>0.02778607059658024</v>
       </c>
       <c r="U35" t="n">
-        <v>0.01841334592173816</v>
+        <v>1853.772168131376</v>
       </c>
       <c r="V35" t="n">
-        <v>2</v>
+        <v>215.3435763930484</v>
       </c>
       <c r="W35" t="n">
-        <v>9.376345997990198</v>
+        <v>-5.401715275000321</v>
       </c>
       <c r="X35" t="n">
-        <v>22.44178872444865</v>
+        <v>3.451649138168169</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>0.1037615697629466</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>8.455130350823577</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>1.578391418888722</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>8.994921992375714</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>0.01113723816042345</v>
+      </c>
+      <c r="AD35" t="inlineStr">
+        <is>
+          <t>new NiCrMoTiFe data</t>
+        </is>
+      </c>
+      <c r="AE35" t="n">
+        <v>5.725766181945801</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>12.82681083679199</v>
       </c>
     </row>
     <row r="36">
@@ -3125,19 +4049,45 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>6.915343106691225</v>
+        <v>0.03320309666656895</v>
       </c>
       <c r="U36" t="n">
-        <v>0.03150302980955644</v>
+        <v>1871.328810638551</v>
       </c>
       <c r="V36" t="n">
-        <v>2</v>
+        <v>234.1195505358264</v>
       </c>
       <c r="W36" t="n">
-        <v>10.00423681243517</v>
+        <v>-6.207548102956127</v>
       </c>
       <c r="X36" t="n">
-        <v>19.58920388528248</v>
+        <v>3.995672476732512</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>0.1125949163041201</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>8.296085052838539</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>1.646076820663437</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>7.589695236376564</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>0.02248633206369877</v>
+      </c>
+      <c r="AD36" t="inlineStr">
+        <is>
+          <t>new NiCrMoTiFe data</t>
+        </is>
+      </c>
+      <c r="AE36" t="n">
+        <v>5.884486198425293</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>13.21294975280762</v>
       </c>
     </row>
     <row r="37">
@@ -3199,19 +4149,45 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>6.564096203472729</v>
+        <v>0.03884687487624496</v>
       </c>
       <c r="U37" t="n">
-        <v>0.03755126917523621</v>
+        <v>1883.454069982317</v>
       </c>
       <c r="V37" t="n">
-        <v>2</v>
+        <v>249.5231895669747</v>
       </c>
       <c r="W37" t="n">
-        <v>10.12651515146599</v>
+        <v>-7.149269888331516</v>
       </c>
       <c r="X37" t="n">
-        <v>17.59181551375821</v>
+        <v>4.580602116731222</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>0.1204672738191375</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>8.1775226977486</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>1.706887303940507</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>7.482550751870674</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>0.02372382703061482</v>
+      </c>
+      <c r="AD37" t="inlineStr">
+        <is>
+          <t>new NiCrMoTiFe data</t>
+        </is>
+      </c>
+      <c r="AE37" t="n">
+        <v>6.236373901367188</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>13.5415735244751</v>
       </c>
     </row>
     <row r="38">
@@ -3273,19 +4249,45 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>6.505457357179854</v>
+        <v>0.04571517909500261</v>
       </c>
       <c r="U38" t="n">
-        <v>0.03866854970006917</v>
+        <v>1903.055727052831</v>
       </c>
       <c r="V38" t="n">
-        <v>2</v>
+        <v>267.955517596444</v>
       </c>
       <c r="W38" t="n">
-        <v>9.72072587410976</v>
+        <v>-8.499983747448452</v>
       </c>
       <c r="X38" t="n">
-        <v>15.00978716878035</v>
+        <v>5.257125421822824</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>0.1317698614362234</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>7.983231044902071</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>1.793112124583807</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>7.75097971396563</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>0.02074417370606607</v>
+      </c>
+      <c r="AD38" t="inlineStr">
+        <is>
+          <t>new NiCrMoTiFe data</t>
+        </is>
+      </c>
+      <c r="AE38" t="n">
+        <v>6.382075309753418</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>13.9648962020874</v>
       </c>
     </row>
     <row r="39">
@@ -3347,19 +4349,45 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>7.072230836657679</v>
+        <v>0.05292177768615149</v>
       </c>
       <c r="U39" t="n">
-        <v>0.02912625090971377</v>
+        <v>1915.270699666103</v>
       </c>
       <c r="V39" t="n">
-        <v>2</v>
+        <v>276.8059324216907</v>
       </c>
       <c r="W39" t="n">
-        <v>8.791717823655096</v>
+        <v>-10.28152875885367</v>
       </c>
       <c r="X39" t="n">
-        <v>13.24044664379978</v>
+        <v>6.021516298486138</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>0.1421670544178495</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>7.799204875257919</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>1.891498966762572</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>8.845619709812524</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>0.01200046530047527</v>
+      </c>
+      <c r="AD39" t="inlineStr">
+        <is>
+          <t>new NiCrMoTiFe data</t>
+        </is>
+      </c>
+      <c r="AE39" t="n">
+        <v>6.445046424865723</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>14.30546474456787</v>
       </c>
     </row>
     <row r="40">
@@ -3421,19 +4449,45 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>9.205507800537649</v>
+        <v>0.06203850431051615</v>
       </c>
       <c r="U40" t="n">
-        <v>0.0100241920729025</v>
+        <v>1931.991337486817</v>
       </c>
       <c r="V40" t="n">
-        <v>2</v>
+        <v>292.9426643223442</v>
       </c>
       <c r="W40" t="n">
-        <v>6.39657773118737</v>
+        <v>-13.03630535919964</v>
       </c>
       <c r="X40" t="n">
-        <v>11.35277963085919</v>
+        <v>6.993463708553957</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>0.1579263444042211</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>7.536729373264516</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>2.030469900039257</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>12.01846226748231</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>0.002455975771571639</v>
+      </c>
+      <c r="AD40" t="inlineStr">
+        <is>
+          <t>new NiCrMoTiFe data</t>
+        </is>
+      </c>
+      <c r="AE40" t="n">
+        <v>6.614217281341553</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>14.53801345825195</v>
       </c>
     </row>
     <row r="41">
@@ -3495,19 +4549,45 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>13.84573437371192</v>
+        <v>0.01611792915068352</v>
       </c>
       <c r="U41" t="n">
-        <v>0.0009850017039886305</v>
+        <v>1808.239641107628</v>
       </c>
       <c r="V41" t="n">
-        <v>2</v>
+        <v>159.2970297831138</v>
       </c>
       <c r="W41" t="n">
-        <v>8.525819088055551</v>
+        <v>-3.636299676179426</v>
       </c>
       <c r="X41" t="n">
-        <v>28.4438489367014</v>
+        <v>2.152628046095119</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>0.07917362595361378</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>8.835891679616505</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>1.3515369856457</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>18.11110485325906</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>0.0001167410380051859</v>
+      </c>
+      <c r="AD41" t="inlineStr">
+        <is>
+          <t>new NiCrMoTiFe data</t>
+        </is>
+      </c>
+      <c r="AE41" t="n">
+        <v>5.06595516204834</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>12.15513515472412</v>
       </c>
     </row>
     <row r="42">
@@ -3569,19 +4649,45 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>11.21112041603556</v>
+        <v>0.01880086586279404</v>
       </c>
       <c r="U42" t="n">
-        <v>0.00367735988061868</v>
+        <v>1818.68382189645</v>
       </c>
       <c r="V42" t="n">
-        <v>2</v>
+        <v>171.5358855826844</v>
       </c>
       <c r="W42" t="n">
-        <v>11.33834951173966</v>
+        <v>-3.916494663786128</v>
       </c>
       <c r="X42" t="n">
-        <v>24.57357565377697</v>
+        <v>2.421695666149761</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>0.08383711990900984</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>8.713002271277938</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>1.389207621495003</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>14.20131210893477</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>0.0008245637870217815</v>
+      </c>
+      <c r="AD42" t="inlineStr">
+        <is>
+          <t>new NiCrMoTiFe data</t>
+        </is>
+      </c>
+      <c r="AE42" t="n">
+        <v>5.369454860687256</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>12.17967414855957</v>
       </c>
     </row>
     <row r="43">
@@ -3643,19 +4749,45 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>10.00081745846907</v>
+        <v>0.02152349612150525</v>
       </c>
       <c r="U43" t="n">
-        <v>0.006735193565908792</v>
+        <v>1826.726076183137</v>
       </c>
       <c r="V43" t="n">
-        <v>2</v>
+        <v>179.2341687858081</v>
       </c>
       <c r="W43" t="n">
-        <v>13.26457567127402</v>
+        <v>-4.220984231619051</v>
       </c>
       <c r="X43" t="n">
-        <v>21.76395237705967</v>
+        <v>2.725126528949923</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>0.08781957068462753</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>8.614216723080775</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>1.422324757136511</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>12.18487652233944</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>0.002259891984815132</v>
+      </c>
+      <c r="AD43" t="inlineStr">
+        <is>
+          <t>new NiCrMoTiFe data</t>
+        </is>
+      </c>
+      <c r="AE43" t="n">
+        <v>5.664398670196533</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>12.38381195068359</v>
       </c>
     </row>
     <row r="44">
@@ -3717,19 +4849,45 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>9.053386352233943</v>
+        <v>0.02682561572720429</v>
       </c>
       <c r="U44" t="n">
-        <v>0.01081638487868186</v>
+        <v>1843.565591080131</v>
       </c>
       <c r="V44" t="n">
-        <v>2</v>
+        <v>204.9714206893031</v>
       </c>
       <c r="W44" t="n">
-        <v>14.85517430518958</v>
+        <v>-4.80082848771547</v>
       </c>
       <c r="X44" t="n">
-        <v>18.18733832492083</v>
+        <v>3.20869417912641</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>0.0965251354987447</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>8.466966945027913</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>1.480117606964709</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>10.40686087242858</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>0.005497672620477623</v>
+      </c>
+      <c r="AD44" t="inlineStr">
+        <is>
+          <t>new NiCrMoTiFe data</t>
+        </is>
+      </c>
+      <c r="AE44" t="n">
+        <v>5.815825939178467</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>12.63832950592041</v>
       </c>
     </row>
     <row r="45">
@@ -3791,19 +4949,45 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>9.035892397687135</v>
+        <v>0.03095282062176732</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01091141053917855</v>
+        <v>1852.242822712511</v>
       </c>
       <c r="V45" t="n">
-        <v>2</v>
+        <v>213.1614044856885</v>
       </c>
       <c r="W45" t="n">
-        <v>16.05795425220987</v>
+        <v>-5.36730004916967</v>
       </c>
       <c r="X45" t="n">
-        <v>15.79160612155209</v>
+        <v>3.649523120293471</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>0.1018977667132576</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>8.3607683901506</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>1.523919880415215</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>10.02177617453795</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>0.006664981591845254</v>
+      </c>
+      <c r="AD45" t="inlineStr">
+        <is>
+          <t>new NiCrMoTiFe data</t>
+        </is>
+      </c>
+      <c r="AE45" t="n">
+        <v>6.091770648956299</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>12.80699443817139</v>
       </c>
     </row>
     <row r="46">
@@ -3865,19 +5049,45 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>8.826442076948148</v>
+        <v>0.03774512712960616</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01211608902073569</v>
+        <v>1864.986554005233</v>
       </c>
       <c r="V46" t="n">
-        <v>2</v>
+        <v>228.8206401150541</v>
       </c>
       <c r="W46" t="n">
-        <v>15.8820702352787</v>
+        <v>-6.533251677848141</v>
       </c>
       <c r="X46" t="n">
-        <v>13.92918512516057</v>
+        <v>4.375147715580695</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>0.1115694150144273</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>8.22508757524284</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>1.611128225553049</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>9.815023756533124</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>0.007390854819368631</v>
+      </c>
+      <c r="AD46" t="inlineStr">
+        <is>
+          <t>new NiCrMoTiFe data</t>
+        </is>
+      </c>
+      <c r="AE46" t="n">
+        <v>6.402660846710205</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>13.26792049407959</v>
       </c>
     </row>
     <row r="47">
@@ -3939,19 +5149,45 @@
         <v>0</v>
       </c>
       <c r="T47" t="n">
-        <v>9.173134821525462</v>
+        <v>0.04519229896075171</v>
       </c>
       <c r="U47" t="n">
-        <v>0.01018776884813144</v>
+        <v>1879.925142298614</v>
       </c>
       <c r="V47" t="n">
-        <v>2</v>
+        <v>244.2319599421378</v>
       </c>
       <c r="W47" t="n">
-        <v>15.70067305187199</v>
+        <v>-8.024936354289265</v>
       </c>
       <c r="X47" t="n">
-        <v>11.51885475327707</v>
+        <v>5.108179535392596</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>0.1227780247380687</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>8.046246763814068</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>1.709770449615942</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>10.38900917556193</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>0.005546963667979465</v>
+      </c>
+      <c r="AD47" t="inlineStr">
+        <is>
+          <t>new NiCrMoTiFe data</t>
+        </is>
+      </c>
+      <c r="AE47" t="n">
+        <v>6.634373664855957</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>13.7099027633667</v>
       </c>
     </row>
     <row r="48">
@@ -4013,19 +5249,45 @@
         <v>0</v>
       </c>
       <c r="T48" t="n">
-        <v>8.922179805975968</v>
+        <v>0.05337959878309732</v>
       </c>
       <c r="U48" t="n">
-        <v>0.01154976829807841</v>
+        <v>1897.866015794312</v>
       </c>
       <c r="V48" t="n">
-        <v>2</v>
+        <v>263.3428581176035</v>
       </c>
       <c r="W48" t="n">
-        <v>12.90859475113418</v>
+        <v>-10.18430042650438</v>
       </c>
       <c r="X48" t="n">
-        <v>10.82637263620427</v>
+        <v>5.978418731174593</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>0.1372934475010165</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>7.848168989507926</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>1.849931607495227</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>10.77854221974795</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>0.004565299725193706</v>
+      </c>
+      <c r="AD48" t="inlineStr">
+        <is>
+          <t>new NiCrMoTiFe data</t>
+        </is>
+      </c>
+      <c r="AE48" t="n">
+        <v>6.63408899307251</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>14.04029178619385</v>
       </c>
     </row>
     <row r="49">
@@ -4087,19 +5349,45 @@
         <v>0</v>
       </c>
       <c r="T49" t="n">
-        <v>10.66876917196374</v>
+        <v>0.06038257678424405</v>
       </c>
       <c r="U49" t="n">
-        <v>0.004822877265440173</v>
+        <v>1911.895943236241</v>
       </c>
       <c r="V49" t="n">
-        <v>2</v>
+        <v>273.266600994712</v>
       </c>
       <c r="W49" t="n">
-        <v>11.54315030372332</v>
+        <v>-12.19586695638432</v>
       </c>
       <c r="X49" t="n">
-        <v>8.865743153249921</v>
+        <v>6.628266439494641</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>0.1491778924153696</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>7.621670965023037</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>1.957039338609674</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>12.922450373932</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>0.001562879717050047</v>
+      </c>
+      <c r="AD49" t="inlineStr">
+        <is>
+          <t>new NiCrMoTiFe data</t>
+        </is>
+      </c>
+      <c r="AE49" t="n">
+        <v>6.673608303070068</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>14.39546489715576</v>
       </c>
     </row>
     <row r="50">
@@ -4161,19 +5449,45 @@
         <v>0</v>
       </c>
       <c r="T50" t="n">
-        <v>12.82929555908299</v>
+        <v>0.01650675275345272</v>
       </c>
       <c r="U50" t="n">
-        <v>0.001637396531139701</v>
+        <v>1802.780645478129</v>
       </c>
       <c r="V50" t="n">
-        <v>2</v>
+        <v>141.3045690310866</v>
       </c>
       <c r="W50" t="n">
-        <v>15.3988044115129</v>
+        <v>-3.350434456507964</v>
       </c>
       <c r="X50" t="n">
-        <v>22.28273104986579</v>
+        <v>2.142422444745051</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>0.07229919356232063</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>8.770975246959416</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>1.275115202946909</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>17.46343651151341</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>0.0001613849172891202</v>
+      </c>
+      <c r="AD50" t="inlineStr">
+        <is>
+          <t>new NiCrMoTiFe data</t>
+        </is>
+      </c>
+      <c r="AE50" t="n">
+        <v>5.468636035919189</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>12.0933952331543</v>
       </c>
     </row>
     <row r="51">
@@ -4235,19 +5549,45 @@
         <v>0</v>
       </c>
       <c r="T51" t="n">
-        <v>12.26777169368209</v>
+        <v>0.01848949497671527</v>
       </c>
       <c r="U51" t="n">
-        <v>0.00216813951217476</v>
+        <v>1813.793750480788</v>
       </c>
       <c r="V51" t="n">
-        <v>2</v>
+        <v>156.2722053331537</v>
       </c>
       <c r="W51" t="n">
-        <v>18.70752780246302</v>
+        <v>-3.497233308448993</v>
       </c>
       <c r="X51" t="n">
-        <v>17.9125560465632</v>
+        <v>2.270210503507955</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>0.07679224333612204</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>8.641966246426012</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>1.299463027721608</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>15.7392783308583</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>0.0003821722382789661</v>
+      </c>
+      <c r="AD51" t="inlineStr">
+        <is>
+          <t>new NiCrMoTiFe data</t>
+        </is>
+      </c>
+      <c r="AE51" t="n">
+        <v>5.629249572753906</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>12.15784072875977</v>
       </c>
     </row>
     <row r="52">
@@ -4309,19 +5649,45 @@
         <v>0</v>
       </c>
       <c r="T52" t="n">
-        <v>12.6499498401699</v>
+        <v>0.0209307468106094</v>
       </c>
       <c r="U52" t="n">
-        <v>0.001791011168385981</v>
+        <v>1819.810792892937</v>
       </c>
       <c r="V52" t="n">
-        <v>2</v>
+        <v>161.7862543444157</v>
       </c>
       <c r="W52" t="n">
-        <v>20.59841489783155</v>
+        <v>-3.723492075321114</v>
       </c>
       <c r="X52" t="n">
-        <v>15.35309371384936</v>
+        <v>2.535657421572502</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>0.07998154867036784</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>8.558739521406242</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>1.321868675660055</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>15.42564541306278</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>0.0004470577815325338</v>
+      </c>
+      <c r="AD52" t="inlineStr">
+        <is>
+          <t>new NiCrMoTiFe data</t>
+        </is>
+      </c>
+      <c r="AE52" t="n">
+        <v>5.967777252197266</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>12.19517517089844</v>
       </c>
     </row>
     <row r="53">
@@ -4383,19 +5749,45 @@
         <v>0</v>
       </c>
       <c r="T53" t="n">
-        <v>13.08423707470903</v>
+        <v>0.02613434287937933</v>
       </c>
       <c r="U53" t="n">
-        <v>0.001441431535466275</v>
+        <v>1831.477901479314</v>
       </c>
       <c r="V53" t="n">
-        <v>2</v>
+        <v>182.6578015993563</v>
       </c>
       <c r="W53" t="n">
-        <v>21.74886632628408</v>
+        <v>-4.267143899904625</v>
       </c>
       <c r="X53" t="n">
-        <v>12.71833264313027</v>
+        <v>3.037407874301899</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>0.08755231730496202</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>8.448512326713379</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>1.373272575262313</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>14.86411791601899</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>0.0005919674202183867</v>
+      </c>
+      <c r="AD53" t="inlineStr">
+        <is>
+          <t>new NiCrMoTiFe data</t>
+        </is>
+      </c>
+      <c r="AE53" t="n">
+        <v>6.258237838745117</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>12.43852996826172</v>
       </c>
     </row>
     <row r="54">
@@ -4457,19 +5849,45 @@
         <v>0</v>
       </c>
       <c r="T54" t="n">
-        <v>13.41757266132258</v>
+        <v>0.03136456619215159</v>
       </c>
       <c r="U54" t="n">
-        <v>0.001220144077789254</v>
+        <v>1841.294138540393</v>
       </c>
       <c r="V54" t="n">
-        <v>2</v>
+        <v>194.6042654912872</v>
       </c>
       <c r="W54" t="n">
-        <v>22.27483030372173</v>
+        <v>-5.013693058505861</v>
       </c>
       <c r="X54" t="n">
-        <v>10.76783103850996</v>
+        <v>3.590387282908146</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>0.09506810679981141</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>8.3373602001035</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>1.439120569864712</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>14.62492050546572</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>0.0006671736155552388</v>
+      </c>
+      <c r="AD54" t="inlineStr">
+        <is>
+          <t>new NiCrMoTiFe data</t>
+        </is>
+      </c>
+      <c r="AE54" t="n">
+        <v>6.488579273223877</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>12.80151557922363</v>
       </c>
     </row>
     <row r="55">
@@ -4531,19 +5949,45 @@
         <v>0</v>
       </c>
       <c r="T55" t="n">
-        <v>13.20111658740709</v>
+        <v>0.03697844851397943</v>
       </c>
       <c r="U55" t="n">
-        <v>0.00135960876460639</v>
+        <v>1852.438872481081</v>
       </c>
       <c r="V55" t="n">
-        <v>2</v>
+        <v>208.8803546038069</v>
       </c>
       <c r="W55" t="n">
-        <v>21.76788975979859</v>
+        <v>-5.988293646345637</v>
       </c>
       <c r="X55" t="n">
-        <v>9.52593447179698</v>
+        <v>4.163938861748861</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>0.1039704844714694</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>8.222625121503787</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>1.521481844261621</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>14.17624050869838</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>0.0008349654139844231</v>
+      </c>
+      <c r="AD55" t="inlineStr">
+        <is>
+          <t>new NiCrMoTiFe data</t>
+        </is>
+      </c>
+      <c r="AE55" t="n">
+        <v>6.510649681091309</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>13.082763671875</v>
       </c>
     </row>
     <row r="56">
@@ -4605,19 +6049,45 @@
         <v>0</v>
       </c>
       <c r="T56" t="n">
-        <v>13.47746123872938</v>
+        <v>0.04386412301033655</v>
       </c>
       <c r="U56" t="n">
-        <v>0.001184149339233609</v>
+        <v>1861.438762891978</v>
       </c>
       <c r="V56" t="n">
-        <v>2</v>
+        <v>217.3992985995519</v>
       </c>
       <c r="W56" t="n">
-        <v>21.28680955019228</v>
+        <v>-7.404815575400058</v>
       </c>
       <c r="X56" t="n">
-        <v>8.105352423288425</v>
+        <v>4.855416672966035</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>0.1135459249647726</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>8.085637514775369</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>1.621859413550103</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>14.51495290050452</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>0.0007048846043994361</v>
+      </c>
+      <c r="AD56" t="inlineStr">
+        <is>
+          <t>new NiCrMoTiFe data</t>
+        </is>
+      </c>
+      <c r="AE56" t="n">
+        <v>6.731118679046631</v>
+      </c>
+      <c r="AF56" t="n">
+        <v>13.42998504638672</v>
       </c>
     </row>
     <row r="57">
@@ -4679,19 +6149,45 @@
         <v>0</v>
       </c>
       <c r="T57" t="n">
-        <v>13.5984688594723</v>
+        <v>0.05056947647223293</v>
       </c>
       <c r="U57" t="n">
-        <v>0.001114628147452557</v>
+        <v>1878.032354328183</v>
       </c>
       <c r="V57" t="n">
-        <v>2</v>
+        <v>238.9294845076311</v>
       </c>
       <c r="W57" t="n">
-        <v>19.81123677518364</v>
+        <v>-8.939197736900102</v>
       </c>
       <c r="X57" t="n">
-        <v>6.676061126619582</v>
+        <v>5.441441972472609</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>0.1259856130237835</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>7.91523055084948</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>1.727016787533407</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>14.99902267342009</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>0.0005533547082224866</v>
+      </c>
+      <c r="AD57" t="inlineStr">
+        <is>
+          <t>new NiCrMoTiFe data</t>
+        </is>
+      </c>
+      <c r="AE57" t="n">
+        <v>6.701267242431641</v>
+      </c>
+      <c r="AF57" t="n">
+        <v>13.72405815124512</v>
       </c>
     </row>
     <row r="58">
@@ -4753,19 +6249,45 @@
         <v>0</v>
       </c>
       <c r="T58" t="n">
-        <v>13.89361801306786</v>
+        <v>0.06033155653299954</v>
       </c>
       <c r="U58" t="n">
-        <v>0.0009616990380234558</v>
+        <v>1893.132140490695</v>
       </c>
       <c r="V58" t="n">
-        <v>2</v>
+        <v>252.9248188175117</v>
       </c>
       <c r="W58" t="n">
-        <v>16.10433652794287</v>
+        <v>-11.95489947297237</v>
       </c>
       <c r="X58" t="n">
-        <v>6.293750205555497</v>
+        <v>6.429520058875787</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>0.1429482959700768</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>7.666832004451789</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>1.911541131955564</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>15.97002575483122</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>0.00034052811112395</v>
+      </c>
+      <c r="AD58" t="inlineStr">
+        <is>
+          <t>new NiCrMoTiFe data</t>
+        </is>
+      </c>
+      <c r="AE58" t="n">
+        <v>6.671901702880859</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>14.084547996521</v>
       </c>
     </row>
     <row r="59">
@@ -4827,19 +6349,45 @@
         <v>0</v>
       </c>
       <c r="T59" t="n">
-        <v>17.16630540904003</v>
+        <v>0.01740178845315576</v>
       </c>
       <c r="U59" t="n">
-        <v>0.0001872337532183854</v>
+        <v>1809.884110433831</v>
       </c>
       <c r="V59" t="n">
-        <v>2</v>
+        <v>139.8836375896841</v>
       </c>
       <c r="W59" t="n">
-        <v>25.77984084811836</v>
+        <v>-3.031786591218217</v>
       </c>
       <c r="X59" t="n">
-        <v>11.49154022457607</v>
+        <v>2.025358101991432</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>0.06936782305242623</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>8.569387607330375</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>1.203316242282515</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>21.94695370059395</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>1.715060941986923e-05</v>
+      </c>
+      <c r="AD59" t="inlineStr">
+        <is>
+          <t>new NiCrMoTiFe data</t>
+        </is>
+      </c>
+      <c r="AE59" t="n">
+        <v>5.921496868133545</v>
+      </c>
+      <c r="AF59" t="n">
+        <v>12.02504062652588</v>
       </c>
     </row>
     <row r="60">
@@ -4901,19 +6449,45 @@
         <v>0</v>
       </c>
       <c r="T60" t="n">
-        <v>18.54881081957222</v>
+        <v>0.02130045397373643</v>
       </c>
       <c r="U60" t="n">
-        <v>9.379439957235558e-05</v>
+        <v>1815.769244665607</v>
       </c>
       <c r="V60" t="n">
-        <v>2</v>
+        <v>151.3022445361542</v>
       </c>
       <c r="W60" t="n">
-        <v>27.17680796320791</v>
+        <v>-3.339746289076316</v>
       </c>
       <c r="X60" t="n">
-        <v>9.331508076512598</v>
+        <v>2.4274130012333</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>0.07376622362674641</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>8.497920215669927</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>1.229763406140412</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>22.08559921442391</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>1.600195577566854e-05</v>
+      </c>
+      <c r="AD60" t="inlineStr">
+        <is>
+          <t>new NiCrMoTiFe data</t>
+        </is>
+      </c>
+      <c r="AE60" t="n">
+        <v>6.282776355743408</v>
+      </c>
+      <c r="AF60" t="n">
+        <v>12.13954162597656</v>
       </c>
     </row>
     <row r="61">
@@ -4975,19 +6549,45 @@
         <v>0</v>
       </c>
       <c r="T61" t="n">
-        <v>19.81117779228173</v>
+        <v>0.02418905334103039</v>
       </c>
       <c r="U61" t="n">
-        <v>4.989504313357429e-05</v>
+        <v>1823.822495380722</v>
       </c>
       <c r="V61" t="n">
-        <v>2</v>
+        <v>162.630477938699</v>
       </c>
       <c r="W61" t="n">
-        <v>28.30965910481973</v>
+        <v>-3.626491216119733</v>
       </c>
       <c r="X61" t="n">
-        <v>7.250078089942797</v>
+        <v>2.699405705324574</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>0.0788050276053151</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>8.411801508251644</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>1.262040669588086</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>22.5441222973093</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>1.272348386682776e-05</v>
+      </c>
+      <c r="AD61" t="inlineStr">
+        <is>
+          <t>new NiCrMoTiFe data</t>
+        </is>
+      </c>
+      <c r="AE61" t="n">
+        <v>6.438383102416992</v>
+      </c>
+      <c r="AF61" t="n">
+        <v>12.1729679107666</v>
       </c>
     </row>
     <row r="62">
@@ -5049,19 +6649,45 @@
         <v>0</v>
       </c>
       <c r="T62" t="n">
-        <v>20.13174281826446</v>
+        <v>0.02932879966732232</v>
       </c>
       <c r="U62" t="n">
-        <v>4.250574098607629e-05</v>
+        <v>1831.956111086356</v>
       </c>
       <c r="V62" t="n">
-        <v>2</v>
+        <v>175.8022254655756</v>
       </c>
       <c r="W62" t="n">
-        <v>28.33209960168392</v>
+        <v>-4.296603370469127</v>
       </c>
       <c r="X62" t="n">
-        <v>5.996891757586081</v>
+        <v>3.233605779627207</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>0.08625357428706133</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>8.326103638935868</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>1.326537735811674</v>
+      </c>
+      <c r="AB62" t="n">
+        <v>21.93479354680573</v>
+      </c>
+      <c r="AC62" t="n">
+        <v>1.725520409356918e-05</v>
+      </c>
+      <c r="AD62" t="inlineStr">
+        <is>
+          <t>new NiCrMoTiFe data</t>
+        </is>
+      </c>
+      <c r="AE62" t="n">
+        <v>6.534871101379395</v>
+      </c>
+      <c r="AF62" t="n">
+        <v>12.50263023376465</v>
       </c>
     </row>
     <row r="63">
@@ -5123,19 +6749,45 @@
         <v>0</v>
       </c>
       <c r="T63" t="n">
-        <v>19.56320578463712</v>
+        <v>0.0346884499810637</v>
       </c>
       <c r="U63" t="n">
-        <v>5.648119018508702e-05</v>
+        <v>1841.442540380199</v>
       </c>
       <c r="V63" t="n">
-        <v>2</v>
+        <v>191.5431379373314</v>
       </c>
       <c r="W63" t="n">
-        <v>27.47910470998149</v>
+        <v>-5.15969551143198</v>
       </c>
       <c r="X63" t="n">
-        <v>5.330814262661218</v>
+        <v>3.770269184798586</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>0.09500510175245287</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>8.237211329330723</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>1.407001033805207</v>
+      </c>
+      <c r="AB63" t="n">
+        <v>20.87102970882819</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>2.937064492347652e-05</v>
+      </c>
+      <c r="AD63" t="inlineStr">
+        <is>
+          <t>new NiCrMoTiFe data</t>
+        </is>
+      </c>
+      <c r="AE63" t="n">
+        <v>6.746697425842285</v>
+      </c>
+      <c r="AF63" t="n">
+        <v>12.78866767883301</v>
       </c>
     </row>
     <row r="64">
@@ -5197,19 +6849,45 @@
         <v>0</v>
       </c>
       <c r="T64" t="n">
-        <v>19.31531601236363</v>
+        <v>0.04226224807061562</v>
       </c>
       <c r="U64" t="n">
-        <v>6.393407995120004e-05</v>
+        <v>1850.859046094969</v>
       </c>
       <c r="V64" t="n">
-        <v>2</v>
+        <v>202.3200598468264</v>
       </c>
       <c r="W64" t="n">
-        <v>26.47526824034751</v>
+        <v>-6.655098692012343</v>
       </c>
       <c r="X64" t="n">
-        <v>4.356319239176887</v>
+        <v>4.517802087094323</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>0.1061043392779721</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>8.103649949123939</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>1.525445472123222</v>
+      </c>
+      <c r="AB64" t="n">
+        <v>20.46430820278549</v>
+      </c>
+      <c r="AC64" t="n">
+        <v>3.599415112731652e-05</v>
+      </c>
+      <c r="AD64" t="inlineStr">
+        <is>
+          <t>new NiCrMoTiFe data</t>
+        </is>
+      </c>
+      <c r="AE64" t="n">
+        <v>6.785614013671875</v>
+      </c>
+      <c r="AF64" t="n">
+        <v>13.17994403839111</v>
       </c>
     </row>
     <row r="65">
@@ -5271,19 +6949,45 @@
         <v>0</v>
       </c>
       <c r="T65" t="n">
-        <v>18.27420259136688</v>
+        <v>0.05021896804764986</v>
       </c>
       <c r="U65" t="n">
-        <v>0.0001075987749329377</v>
+        <v>1865.499561822273</v>
       </c>
       <c r="V65" t="n">
-        <v>2</v>
+        <v>221.858194701114</v>
       </c>
       <c r="W65" t="n">
-        <v>24.08816478400577</v>
+        <v>-8.56490055737344</v>
       </c>
       <c r="X65" t="n">
-        <v>3.817170636711859</v>
+        <v>5.247073115973366</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>0.1202527212934408</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>7.934625268674909</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>1.667377773524082</v>
+      </c>
+      <c r="AB65" t="n">
+        <v>19.69151637816195</v>
+      </c>
+      <c r="AC65" t="n">
+        <v>5.297141184557042e-05</v>
+      </c>
+      <c r="AD65" t="inlineStr">
+        <is>
+          <t>new NiCrMoTiFe data</t>
+        </is>
+      </c>
+      <c r="AE65" t="n">
+        <v>6.813522338867188</v>
+      </c>
+      <c r="AF65" t="n">
+        <v>13.53645706176758</v>
       </c>
     </row>
     <row r="66">
@@ -5345,19 +7049,45 @@
         <v>0</v>
       </c>
       <c r="T66" t="n">
-        <v>28.59061966450766</v>
+        <v>0.01963192563019495</v>
       </c>
       <c r="U66" t="n">
-        <v>6.189076100504565e-07</v>
+        <v>1813.904730364141</v>
       </c>
       <c r="V66" t="n">
-        <v>2</v>
+        <v>133.340212169379</v>
       </c>
       <c r="W66" t="n">
-        <v>34.41730426321398</v>
+        <v>-2.8002327490981</v>
       </c>
       <c r="X66" t="n">
-        <v>2.603293126749207</v>
+        <v>2.129102396816455</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>0.06650261904096777</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>8.404495746911222</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>1.124538934076214</v>
+      </c>
+      <c r="AB66" t="n">
+        <v>34.12814370722936</v>
+      </c>
+      <c r="AC66" t="n">
+        <v>3.883003263371876e-08</v>
+      </c>
+      <c r="AD66" t="inlineStr">
+        <is>
+          <t>new NiCrMoTiFe data</t>
+        </is>
+      </c>
+      <c r="AE66" t="n">
+        <v>6.160174369812012</v>
+      </c>
+      <c r="AF66" t="n">
+        <v>12.0422306060791</v>
       </c>
     </row>
     <row r="67">
@@ -5419,19 +7149,45 @@
         <v>0</v>
       </c>
       <c r="T67" t="n">
-        <v>29.93485881848643</v>
+        <v>0.02251848971573795</v>
       </c>
       <c r="U67" t="n">
-        <v>3.160297730175898e-07</v>
+        <v>1817.7189607482</v>
       </c>
       <c r="V67" t="n">
-        <v>2</v>
+        <v>139.2109885145891</v>
       </c>
       <c r="W67" t="n">
-        <v>35.06091516606696</v>
+        <v>-3.060644452700787</v>
       </c>
       <c r="X67" t="n">
-        <v>1.420315597820446</v>
+        <v>2.426542647739843</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>0.07007314791346539</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>8.354293452070607</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>1.149923918218328</v>
+      </c>
+      <c r="AB67" t="n">
+        <v>34.44798852841829</v>
+      </c>
+      <c r="AC67" t="n">
+        <v>3.309133855822211e-08</v>
+      </c>
+      <c r="AD67" t="inlineStr">
+        <is>
+          <t>new NiCrMoTiFe data</t>
+        </is>
+      </c>
+      <c r="AE67" t="n">
+        <v>6.444190502166748</v>
+      </c>
+      <c r="AF67" t="n">
+        <v>12.15132617950439</v>
       </c>
     </row>
     <row r="68">
@@ -5493,19 +7249,45 @@
         <v>0</v>
       </c>
       <c r="T68" t="n">
-        <v>29.88361207765463</v>
+        <v>0.02857061409414813</v>
       </c>
       <c r="U68" t="n">
-        <v>3.242321585661401e-07</v>
+        <v>1827.3507335351</v>
       </c>
       <c r="V68" t="n">
-        <v>2</v>
+        <v>158.7023074897322</v>
       </c>
       <c r="W68" t="n">
-        <v>34.59050173785646</v>
+        <v>-3.792604049406814</v>
       </c>
       <c r="X68" t="n">
-        <v>0.4458063918734318</v>
+        <v>3.013182612607435</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>0.07966612253987757</v>
+      </c>
+      <c r="Z68" t="n">
+        <v>8.264353349839951</v>
+      </c>
+      <c r="AA68" t="n">
+        <v>1.229650020650664</v>
+      </c>
+      <c r="AB68" t="n">
+        <v>32.59076559596665</v>
+      </c>
+      <c r="AC68" t="n">
+        <v>8.375392535064918e-08</v>
+      </c>
+      <c r="AD68" t="inlineStr">
+        <is>
+          <t>new NiCrMoTiFe data</t>
+        </is>
+      </c>
+      <c r="AE68" t="n">
+        <v>6.617312908172607</v>
+      </c>
+      <c r="AF68" t="n">
+        <v>12.4357213973999</v>
       </c>
     </row>
     <row r="69">
@@ -5567,19 +7349,45 @@
         <v>0</v>
       </c>
       <c r="T69" t="n">
-        <v>28.93052025308659</v>
+        <v>0.0325884773783547</v>
       </c>
       <c r="U69" t="n">
-        <v>5.221765297935832e-07</v>
+        <v>1833.070883285166</v>
       </c>
       <c r="V69" t="n">
-        <v>2</v>
+        <v>169.0801681298954</v>
       </c>
       <c r="W69" t="n">
-        <v>33.71455516677371</v>
+        <v>-4.41709935748788</v>
       </c>
       <c r="X69" t="n">
-        <v>0.3338634974857531</v>
+        <v>3.409548023397951</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>0.08616037513956529</v>
+      </c>
+      <c r="Z69" t="n">
+        <v>8.209032957442462</v>
+      </c>
+      <c r="AA69" t="n">
+        <v>1.293647358636753</v>
+      </c>
+      <c r="AB69" t="n">
+        <v>30.91008887943755</v>
+      </c>
+      <c r="AC69" t="n">
+        <v>1.940704810188265e-07</v>
+      </c>
+      <c r="AD69" t="inlineStr">
+        <is>
+          <t>new NiCrMoTiFe data</t>
+        </is>
+      </c>
+      <c r="AE69" t="n">
+        <v>6.612958908081055</v>
+      </c>
+      <c r="AF69" t="n">
+        <v>12.59656620025635</v>
       </c>
     </row>
     <row r="70">
@@ -5641,19 +7449,45 @@
         <v>0</v>
       </c>
       <c r="T70" t="n">
-        <v>27.23362372289957</v>
+        <v>0.03980131080266931</v>
       </c>
       <c r="U70" t="n">
-        <v>1.219814376174355e-06</v>
+        <v>1844.869218212894</v>
       </c>
       <c r="V70" t="n">
-        <v>2</v>
+        <v>192.1751435798204</v>
       </c>
       <c r="W70" t="n">
-        <v>31.83781513215267</v>
+        <v>-5.701688642009427</v>
       </c>
       <c r="X70" t="n">
-        <v>0.1033567451562963</v>
+        <v>4.064608656287339</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>0.09862805660520312</v>
+      </c>
+      <c r="Z70" t="n">
+        <v>8.101491389254228</v>
+      </c>
+      <c r="AA70" t="n">
+        <v>1.41087388275249</v>
+      </c>
+      <c r="AB70" t="n">
+        <v>28.71527259703046</v>
+      </c>
+      <c r="AC70" t="n">
+        <v>5.81510796515694e-07</v>
+      </c>
+      <c r="AD70" t="inlineStr">
+        <is>
+          <t>new NiCrMoTiFe data</t>
+        </is>
+      </c>
+      <c r="AE70" t="n">
+        <v>6.714755058288574</v>
+      </c>
+      <c r="AF70" t="n">
+        <v>12.88267707824707</v>
       </c>
     </row>
   </sheetData>
